--- a/Excel_Files/Stats_Populations/2.5_cm/814_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2.5_cm/814_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0003769099767480747</v>
+        <v>0.000642482289889709</v>
       </c>
       <c r="D2">
-        <v>0.0004745711012885293</v>
+        <v>0.000726681278641905</v>
       </c>
       <c r="E2">
-        <v>0.0004193540190572846</v>
+        <v>0.0007190023809610356</v>
       </c>
       <c r="F2">
-        <v>0.0003690797811657669</v>
+        <v>0.0006353413743139388</v>
       </c>
       <c r="G2">
-        <v>0.0002411954330571107</v>
+        <v>0.000471713366797438</v>
       </c>
       <c r="H2">
-        <v>0.0004745711012885293</v>
+        <v>0.000726681278641905</v>
       </c>
       <c r="I2">
-        <v>0.0005418212235421807</v>
+        <v>0.000868520095543834</v>
       </c>
       <c r="J2">
-        <v>0.0005730992807910096</v>
+        <v>0.0008626126784271905</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0002118808516363564</v>
+        <v>0.0004264636262502432</v>
       </c>
       <c r="D3">
-        <v>0.0003384210689447536</v>
+        <v>0.0005834969575145338</v>
       </c>
       <c r="E3">
-        <v>0.0002861092274014094</v>
+        <v>0.0005265349369752904</v>
       </c>
       <c r="F3">
-        <v>0.0001821700339357101</v>
+        <v>0.0003770438888275306</v>
       </c>
       <c r="G3">
-        <v>0.000181923542579331</v>
+        <v>0.0003761651525634945</v>
       </c>
       <c r="H3">
-        <v>0.0002595813958984684</v>
+        <v>0.0004877958565945637</v>
       </c>
       <c r="I3">
-        <v>0.0002848620390808193</v>
+        <v>0.000535697401380596</v>
       </c>
       <c r="J3">
-        <v>0.0001916320149556175</v>
+        <v>0.0003981332490471138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.0001271565632790115</v>
+        <v>0.0002867476013067286</v>
       </c>
       <c r="D4">
-        <v>0.0001987812813376551</v>
+        <v>0.0003986606203264195</v>
       </c>
       <c r="E4">
-        <v>0.0002049375537963472</v>
+        <v>0.0004069502582987946</v>
       </c>
       <c r="F4">
-        <v>8.79816460020935E-05</v>
+        <v>0.0002126764591102705</v>
       </c>
       <c r="G4">
-        <v>7.591221774470355E-05</v>
+        <v>0.0001886070076658877</v>
       </c>
       <c r="H4">
-        <v>0.0001535861362793758</v>
+        <v>0.0003302300460258111</v>
       </c>
       <c r="I4">
-        <v>0.0002043701032470414</v>
+        <v>0.0004184171045710039</v>
       </c>
       <c r="J4">
-        <v>6.192222329501218E-05</v>
+        <v>0.0001584754296842065</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>8.947426662356508E-06</v>
+        <v>3.191300856159732E-05</v>
       </c>
       <c r="D5">
-        <v>1.036364336888072E-05</v>
+        <v>3.643567696354641E-05</v>
       </c>
       <c r="E5">
-        <v>9.70414445576134E-06</v>
+        <v>3.455847063396546E-05</v>
       </c>
       <c r="F5">
-        <v>5.273273106190816E-06</v>
+        <v>2.074566507450392E-05</v>
       </c>
       <c r="G5">
-        <v>3.943005428095728E-06</v>
+        <v>1.615195657815498E-05</v>
       </c>
       <c r="H5">
-        <v>6.231098852781228E-06</v>
+        <v>2.379748941096443E-05</v>
       </c>
       <c r="I5">
-        <v>7.536526354038389E-06</v>
+        <v>2.743120775706554E-05</v>
       </c>
       <c r="J5">
-        <v>4.81989947449706E-06</v>
+        <v>1.914628764096601E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>5.377821001605384E-06</v>
+        <v>2.11079614992253E-05</v>
       </c>
       <c r="D6">
-        <v>5.957743144785623E-06</v>
+        <v>2.316897662582354E-05</v>
       </c>
       <c r="E6">
-        <v>4.846041238243784E-06</v>
+        <v>1.941699039605907E-05</v>
       </c>
       <c r="F6">
-        <v>2.434604372168368E-06</v>
+        <v>1.097729341010916E-05</v>
       </c>
       <c r="G6">
-        <v>2.348023278894914E-06</v>
+        <v>1.060542995969439E-05</v>
       </c>
       <c r="H6">
-        <v>3.012544894177343E-06</v>
+        <v>1.294715145537622E-05</v>
       </c>
       <c r="I6">
-        <v>4.052826962706554E-06</v>
+        <v>1.665224495737698E-05</v>
       </c>
       <c r="J6">
-        <v>2.645220125680542E-06</v>
+        <v>1.157609360485408E-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2.427480698290194E-06</v>
+        <v>1.095042409996483E-05</v>
       </c>
       <c r="D7">
-        <v>3.533635555316878E-06</v>
+        <v>1.508223825190552E-05</v>
       </c>
       <c r="E7">
-        <v>1.350843425291079E-06</v>
+        <v>6.683255851204818E-06</v>
       </c>
       <c r="F7">
-        <v>8.239286950792169E-07</v>
+        <v>4.513555286322244E-06</v>
       </c>
       <c r="G7">
-        <v>1.152668914117901E-06</v>
+        <v>5.844620818617255E-06</v>
       </c>
       <c r="H7">
-        <v>8.239286950792169E-07</v>
+        <v>4.513555286322244E-06</v>
       </c>
       <c r="I7">
-        <v>2.174509136722802E-06</v>
+        <v>1.003829823906329E-05</v>
       </c>
       <c r="J7">
-        <v>8.868934047602284E-07</v>
+        <v>4.766967260566905E-06</v>
       </c>
     </row>
   </sheetData>
